--- a/Submission Assembly.xlsx
+++ b/Submission Assembly.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Submissions" sheetId="3" r:id="rId1"/>
     <sheet name="Template" sheetId="4" r:id="rId2"/>
+    <sheet name="Tracking" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="124">
   <si>
     <t>date</t>
   </si>
@@ -341,6 +342,57 @@
   </si>
   <si>
     <t>Check:</t>
+  </si>
+  <si>
+    <t>sub1_win</t>
+  </si>
+  <si>
+    <t>sub1_draw</t>
+  </si>
+  <si>
+    <t>sub1_lose</t>
+  </si>
+  <si>
+    <t>sub2_win</t>
+  </si>
+  <si>
+    <t>sub2_draw</t>
+  </si>
+  <si>
+    <t>sub2_lose</t>
+  </si>
+  <si>
+    <t>sub3_win</t>
+  </si>
+  <si>
+    <t>sub3_draw</t>
+  </si>
+  <si>
+    <t>sub3_lose</t>
+  </si>
+  <si>
+    <t>sub4_win</t>
+  </si>
+  <si>
+    <t>sub4_draw</t>
+  </si>
+  <si>
+    <t>sub4_lose</t>
+  </si>
+  <si>
+    <t>sub5_win</t>
+  </si>
+  <si>
+    <t>sub5_draw</t>
+  </si>
+  <si>
+    <t>sub5_lose</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>finished</t>
   </si>
 </sst>
 </file>
@@ -1314,11 +1366,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,74 +1387,74 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J1" t="s">
         <v>106</v>
       </c>
       <c r="K1" s="2">
         <f>SUM(K4:K51)</f>
-        <v>48.000000027939649</v>
+        <v>48.000000037252853</v>
       </c>
       <c r="P1">
         <f>VLOOKUP($A$1,Submissions!$A$1:$F$6,2,FALSE)</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q1">
         <f>VLOOKUP($A$1,Submissions!$A$1:$F$6,3,FALSE)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="R1">
         <f>VLOOKUP($A$1,Submissions!$A$1:$F$6,4,FALSE)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S1">
         <f>VLOOKUP($A$1,Submissions!$A$1:$F$6,5,FALSE)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T1">
         <f>VLOOKUP($A$1,Submissions!$A$1:$F$6,6,FALSE)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="U1">
         <f t="shared" ref="U1:AD1" si="0">P1</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="V1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y1">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Z1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD1">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -1562,31 +1614,31 @@
       </c>
       <c r="E4">
         <f>SUMPRODUCT($P$1:$T$1,P4:T4)</f>
-        <v>0.57491618473020556</v>
+        <v>0.56460291875313462</v>
       </c>
       <c r="F4">
         <f>SUMPRODUCT($U$1:$Y$1,U4:Y4)</f>
-        <v>0.23319853808037014</v>
+        <v>0.24420139827624665</v>
       </c>
       <c r="G4">
         <f>SUMPRODUCT($Z$1:$AD$1,Z4:AD4)</f>
-        <v>0.19188527718942358</v>
+        <v>0.19119568297061734</v>
       </c>
       <c r="H4" s="2">
         <f>1/E4</f>
-        <v>1.7393839772823165</v>
+        <v>1.7711562706909016</v>
       </c>
       <c r="I4" s="2">
         <f>1/G4</f>
-        <v>5.2114472493521689</v>
+        <v>5.2302436146200986</v>
       </c>
       <c r="J4" s="2">
         <f>1/F4</f>
-        <v>4.2881915479905688</v>
+        <v>4.0949806473621226</v>
       </c>
       <c r="K4" s="2">
         <f>SUM(E4:G4)</f>
-        <v>0.99999999999999933</v>
+        <v>0.99999999999999867</v>
       </c>
       <c r="L4" s="2">
         <v>1.45</v>
@@ -1665,31 +1717,31 @@
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E51" si="1">SUMPRODUCT($P$1:$T$1,P5:T5)</f>
-        <v>0.1836374334146566</v>
+        <v>0.22699050380786034</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F51" si="2">SUMPRODUCT($U$1:$Y$1,U5:Y5)</f>
-        <v>0.26076915515791566</v>
+        <v>0.27761493259680603</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G51" si="3">SUMPRODUCT($Z$1:$AD$1,Z5:AD5)</f>
-        <v>0.55559341887800873</v>
+        <v>0.49539457352943994</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" ref="H5:H51" si="4">1/E5</f>
-        <v>5.4455128314823602</v>
+        <v>4.4054706396284562</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I51" si="5">1/G5</f>
-        <v>1.7998773311956191</v>
+        <v>2.0185929629295236</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J51" si="6">1/F5</f>
-        <v>3.8348093715087721</v>
+        <v>3.602111711520755</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K51" si="7">SUM(E5:G5)</f>
-        <v>1.000000007450581</v>
+        <v>1.0000000099341064</v>
       </c>
       <c r="L5" s="2">
         <v>7.8</v>
@@ -1768,31 +1820,31 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0.35018194088582588</v>
+        <v>0.35084130149390064</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.29520663264608038</v>
+        <v>0.31867980799582868</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>0.3546114190175127</v>
+        <v>0.33047888057616198</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="4"/>
-        <v>2.8556583970903349</v>
+        <v>2.8502915584395212</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="5"/>
-        <v>2.8199881514549152</v>
+        <v>3.0259119682824651</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="6"/>
-        <v>3.3874577648764679</v>
+        <v>3.1379459096859046</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999254941896</v>
+        <v>0.99999999006589135</v>
       </c>
       <c r="L6" s="2">
         <v>2.3199999999999998</v>
@@ -1871,31 +1923,31 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0.26382373131473313</v>
+        <v>0.31335925595279901</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.27305997719556524</v>
+        <v>0.29839463391124432</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>0.46311629894028039</v>
+        <v>0.38824612007006332</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="4"/>
-        <v>3.7904095852811381</v>
+        <v>3.1912253459991269</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="5"/>
-        <v>2.1592848325317777</v>
+        <v>2.5756857526857937</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="6"/>
-        <v>3.6621990899962653</v>
+        <v>3.3512666997136549</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000074505788</v>
+        <v>1.0000000099341066</v>
       </c>
       <c r="L7" s="2">
         <v>4.8</v>
@@ -1974,31 +2026,31 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.67386345714116558</v>
+        <v>0.66678967681351031</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.20621574164368442</v>
+        <v>0.21883298920350902</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0.11992080121514925</v>
+        <v>0.11437733398297933</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="4"/>
-        <v>1.4839801585954127</v>
+        <v>1.4997232782289804</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="5"/>
-        <v>8.3388368812338527</v>
+        <v>8.7429909858609882</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="6"/>
-        <v>4.8492903210457996</v>
+        <v>4.5696949241506992</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999999999922</v>
+        <v>0.99999999999999867</v>
       </c>
       <c r="L8" s="2">
         <v>1.28</v>
@@ -2077,31 +2129,31 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.59469910558750638</v>
+        <v>0.58297570605411397</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.21946716034362215</v>
+        <v>0.24360165534571165</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>0.18583374897003124</v>
+        <v>0.17342265846838834</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="4"/>
-        <v>1.6815226231290439</v>
+        <v>1.7153373453047052</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="5"/>
-        <v>5.3811538837397421</v>
+        <v>5.7662592006815592</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="6"/>
-        <v>4.5564903579847158</v>
+        <v>4.1050624166770628</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000149011599</v>
+        <v>1.000000019868214</v>
       </c>
       <c r="L9" s="2">
         <v>1.36</v>
@@ -2180,31 +2232,31 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.44863581592800378</v>
+        <v>0.51840945754656831</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.28418524528629058</v>
+        <v>0.29040382822904331</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>0.26717894996157637</v>
+        <v>0.19118672912554832</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="4"/>
-        <v>2.2289794182648985</v>
+        <v>1.9289771539520395</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="5"/>
-        <v>3.7428098289323031</v>
+        <v>5.2304885625367907</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="6"/>
-        <v>3.5188315248125979</v>
+        <v>3.4434807767454556</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000111758707</v>
+        <v>1.0000000149011599</v>
       </c>
       <c r="L10" s="2">
         <v>3.35</v>
@@ -2283,31 +2335,31 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.56854104874178646</v>
+        <v>0.61429122441084161</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.24981920830731849</v>
+        <v>0.22944576198300032</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>0.18163975040147534</v>
+        <v>0.15626302354026431</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="4"/>
-        <v>1.7588879505060482</v>
+        <v>1.627892374596571</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="5"/>
-        <v>5.5054028525678795</v>
+        <v>6.399466600249994</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="6"/>
-        <v>4.0028947604774903</v>
+        <v>4.3583284840715004</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000074505804</v>
+        <v>1.0000000099341062</v>
       </c>
       <c r="L11" s="2">
         <v>1.75</v>
@@ -2386,31 +2438,31 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0.29579734064674423</v>
+        <v>0.3684426598321493</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.30196981305161275</v>
+        <v>0.31229671286902266</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>0.40223285375222095</v>
+        <v>0.31926063723293463</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="4"/>
-        <v>3.3806930035731773</v>
+        <v>2.7141265358782505</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="5"/>
-        <v>2.4861221321717517</v>
+        <v>3.1322370608137122</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="6"/>
-        <v>3.3115892939572733</v>
+        <v>3.2020830152618363</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000074505779</v>
+        <v>1.0000000099341064</v>
       </c>
       <c r="L12" s="2">
         <v>5.0999999999999996</v>
@@ -2489,31 +2541,31 @@
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>0.62283311548741893</v>
+        <v>0.63949031556208191</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.22503477605044886</v>
+        <v>0.21700379962781469</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>0.15213210473684174</v>
+        <v>0.14350587984304899</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="4"/>
-        <v>1.6055665235741623</v>
+        <v>1.5637453385373741</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="5"/>
-        <v>6.5732345038530884</v>
+        <v>6.9683555899848173</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="6"/>
-        <v>4.4437576162709069</v>
+        <v>4.6082142419400478</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999627470948</v>
+        <v>0.99999999503294557</v>
       </c>
       <c r="L13" s="2">
         <v>1.53</v>
@@ -2592,31 +2644,31 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0.61564465980529448</v>
+        <v>0.63080920872352497</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.23453550705506479</v>
+        <v>0.22901028409024732</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>0.14981984059022027</v>
+        <v>0.140180517120334</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="4"/>
-        <v>1.6243136102508593</v>
+        <v>1.5852653800402687</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="5"/>
-        <v>6.674683380121528</v>
+        <v>7.1336589459259754</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="6"/>
-        <v>4.2637467245640455</v>
+        <v>4.3666161280596665</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000074505795</v>
+        <v>1.0000000099341064</v>
       </c>
       <c r="L14" s="2">
         <v>1.45</v>
@@ -2695,31 +2747,31 @@
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0.45831753480807513</v>
+        <v>0.47921031275212461</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.29796150452400721</v>
+        <v>0.28945632223424433</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>0.24372094576675638</v>
+        <v>0.23133334514541498</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="4"/>
-        <v>2.1818933906134741</v>
+        <v>2.0867664434368258</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="5"/>
-        <v>4.1030531735955558</v>
+        <v>4.3227663498809692</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="6"/>
-        <v>3.3561382420776051</v>
+        <v>3.4547526627894616</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999998509883881</v>
+        <v>0.99999998013178382</v>
       </c>
       <c r="L15" s="2">
         <v>2.12</v>
@@ -2798,31 +2850,31 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>0.71056069230592811</v>
+        <v>0.69358009760908534</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.19966078054571479</v>
+        <v>0.22107775749396796</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
-        <v>8.9778530873646942E-2</v>
+        <v>8.5342149863999517E-2</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="4"/>
-        <v>1.4073393178488056</v>
+        <v>1.4417945431929315</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="5"/>
-        <v>11.138520426530325</v>
+        <v>11.717539358846608</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="6"/>
-        <v>5.0084948945245547</v>
+        <v>4.5232953841016084</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000037252899</v>
+        <v>1.0000000049670528</v>
       </c>
       <c r="L16" s="2">
         <v>1.2</v>
@@ -2901,31 +2953,31 @@
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>0.13511535247798226</v>
+        <v>0.16661813169917264</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.24940091529723052</v>
+        <v>0.29557820577058735</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
-        <v>0.61548373967536674</v>
+        <v>0.53780367246434624</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="4"/>
-        <v>7.4010834569147512</v>
+        <v>6.0017477677969042</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="5"/>
-        <v>1.624738292074855</v>
+        <v>1.8594145990445894</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="6"/>
-        <v>4.0096083801786451</v>
+        <v>3.3831993715265622</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000074505795</v>
+        <v>1.0000000099341062</v>
       </c>
       <c r="L17" s="2">
         <v>9.6</v>
@@ -3004,31 +3056,31 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>0.58865196298522071</v>
+        <v>0.61204639470943401</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.25235621712755157</v>
+        <v>0.24834828584906965</v>
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
-        <v>0.15899183106309703</v>
+        <v>0.13960533434265635</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="4"/>
-        <v>1.6987966793293561</v>
+        <v>1.6338630676433361</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="5"/>
-        <v>6.2896313182476842</v>
+        <v>7.163050070461745</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="6"/>
-        <v>3.9626525210375831</v>
+        <v>4.026603189875595</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000111758693</v>
+        <v>1.0000000149011601</v>
       </c>
       <c r="L18" s="2">
         <v>1.72</v>
@@ -3107,31 +3159,31 @@
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>0.45366741712118025</v>
+        <v>0.51066439160123134</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0.26112077710078541</v>
+        <v>0.24274916499336399</v>
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>0.28521180950332325</v>
+        <v>0.24658644837245763</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="4"/>
-        <v>2.2042579260941007</v>
+        <v>1.9582332671843743</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="5"/>
-        <v>3.5061661778361533</v>
+        <v>4.0553728990392264</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="6"/>
-        <v>3.8296454656077699</v>
+        <v>4.1194786397198806</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="7"/>
-        <v>1.000000003725289</v>
+        <v>1.000000004967053</v>
       </c>
       <c r="L19" s="2">
         <v>2.4</v>
@@ -3210,31 +3262,31 @@
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>0.42046610374719706</v>
+        <v>0.46390611791033232</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.29979692524969198</v>
+        <v>0.29358448528252062</v>
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
-        <v>0.27973696355252847</v>
+        <v>0.2425093868730383</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="4"/>
-        <v>2.3783129985699025</v>
+        <v>2.155608562578363</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="5"/>
-        <v>3.5747867829137352</v>
+        <v>4.1235517226536604</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="6"/>
-        <v>3.3355912478659668</v>
+        <v>3.4061745430371957</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="7"/>
-        <v>0.9999999925494174</v>
+        <v>0.99999999006589135</v>
       </c>
       <c r="L20" s="2">
         <v>2.1800000000000002</v>
@@ -3313,31 +3365,31 @@
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>0.60935154381040491</v>
+        <v>0.64905474161592058</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>0.22486203921869821</v>
+        <v>0.21134854376536732</v>
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>0.16578642442147482</v>
+        <v>0.13959672455281827</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="4"/>
-        <v>1.6410888101583976</v>
+        <v>1.5407020947267833</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="5"/>
-        <v>6.0318569719419495</v>
+        <v>7.1634918598798265</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="6"/>
-        <v>4.4471712676563051</v>
+        <v>4.7315206539117174</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000074505779</v>
+        <v>1.0000000099341062</v>
       </c>
       <c r="L21" s="2">
         <v>1.64</v>
@@ -3416,31 +3468,31 @@
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>0.68099384849132771</v>
+        <v>0.66449485906977934</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.20175714274741879</v>
+        <v>0.21956869328096401</v>
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
-        <v>0.11724901062389802</v>
+        <v>0.1159364501327827</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="4"/>
-        <v>1.4684420457180307</v>
+        <v>1.5049025381473853</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="5"/>
-        <v>8.5288566161783645</v>
+        <v>8.6254150343114198</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="6"/>
-        <v>4.9564540138829543</v>
+        <v>4.5543833460828687</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000018626445</v>
+        <v>1.0000000024835261</v>
       </c>
       <c r="L22" s="2">
         <v>1.23</v>
@@ -3519,31 +3571,31 @@
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>0.14543367039298374</v>
+        <v>0.19675557011374531</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.20114390228326492</v>
+        <v>0.25680894398806997</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>0.65342243104904107</v>
+        <v>0.54643549086523735</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="4"/>
-        <v>6.8759868144553389</v>
+        <v>5.0824482347406752</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="5"/>
-        <v>1.530403537562284</v>
+        <v>1.8300421856138576</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="6"/>
-        <v>4.9715650767863195</v>
+        <v>3.8939453761643712</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000037252899</v>
+        <v>1.0000000049670525</v>
       </c>
       <c r="L23" s="2">
         <v>20</v>
@@ -3622,31 +3674,31 @@
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>0.47072182317763056</v>
+        <v>0.46436635852041103</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.27099652136621305</v>
+        <v>0.28625204508470631</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>0.258281655456155</v>
+        <v>0.249381596394882</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="4"/>
-        <v>2.124396938407171</v>
+        <v>2.15347210591709</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="5"/>
-        <v>3.8717422584034682</v>
+        <v>4.0099189934471156</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="6"/>
-        <v>3.6900842673498491</v>
+        <v>3.4934248232325635</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999999999856</v>
+        <v>0.99999999999999933</v>
       </c>
       <c r="L24" s="2">
         <v>1.71</v>
@@ -3725,31 +3777,31 @@
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>0.49045170550768841</v>
+        <v>0.49297938371435601</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>0.2329207686013354</v>
+        <v>0.25428282293080362</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>0.27662751844039446</v>
+        <v>0.25273778342073167</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="4"/>
-        <v>2.0389367368288696</v>
+        <v>2.0284823930475433</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="5"/>
-        <v>3.6149693480891787</v>
+        <v>3.956669978130273</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="6"/>
-        <v>4.293305427441676</v>
+        <v>3.9326289856083738</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999254941829</v>
+        <v>0.99999999006589135</v>
       </c>
       <c r="L25" s="2">
         <v>1.46</v>
@@ -3828,31 +3880,31 @@
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>0.46137502801580471</v>
+        <v>0.49473176623016996</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>0.25893180313545211</v>
+        <v>0.26009910342313702</v>
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
-        <v>0.27969316884874235</v>
+        <v>0.24516913034669163</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="4"/>
-        <v>2.1674341680359528</v>
+        <v>2.0212973337450055</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="5"/>
-        <v>3.5753465274684579</v>
+        <v>4.0788169317479257</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="6"/>
-        <v>3.8620207633470236</v>
+        <v>3.8446883777725676</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999999999911</v>
+        <v>0.99999999999999867</v>
       </c>
       <c r="L26" s="2">
         <v>1.97</v>
@@ -3931,31 +3983,31 @@
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>0.75132389766379815</v>
+        <v>0.73567894115913868</v>
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>0.17126225040663071</v>
+        <v>0.1889300967053133</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
-        <v>7.7413853792215367E-2</v>
+        <v>7.5390964619074061E-2</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="4"/>
-        <v>1.3309838847259445</v>
+        <v>1.3592886027489057</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="5"/>
-        <v>12.917584528010652</v>
+        <v>13.264188952252749</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="6"/>
-        <v>5.8389983643545733</v>
+        <v>5.2929629394080386</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000018626443</v>
+        <v>1.0000000024835261</v>
       </c>
       <c r="L27" s="2">
         <v>1.22</v>
@@ -4034,31 +4086,31 @@
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>0.30823118491352686</v>
+        <v>0.30437449560406199</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>0.27963037425798953</v>
+        <v>0.306950421980759</v>
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
-        <v>0.41213844082848061</v>
+        <v>0.38867508241517834</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="4"/>
-        <v>3.2443180604212594</v>
+        <v>3.2854263890126498</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="5"/>
-        <v>2.4263691539905867</v>
+        <v>2.5728430898788908</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="6"/>
-        <v>3.576149417435571</v>
+        <v>3.2578551075022935</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="7"/>
-        <v>0.999999999999997</v>
+        <v>0.99999999999999933</v>
       </c>
       <c r="L28" s="2">
         <v>2.64</v>
@@ -4137,31 +4189,31 @@
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>0.25341348482585285</v>
+        <v>0.26178145042267498</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>0.28523658148090641</v>
+        <v>0.29017279281767999</v>
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
-        <v>0.46134992624265891</v>
+        <v>0.44804574682553666</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="4"/>
-        <v>3.9461199181535487</v>
+        <v>3.8199803629531042</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="5"/>
-        <v>2.1675520968307778</v>
+        <v>2.2319149486076637</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="6"/>
-        <v>3.5058616773772386</v>
+        <v>3.446222474166678</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999254941818</v>
+        <v>0.99999999006589169</v>
       </c>
       <c r="L29" s="2">
         <v>2.94</v>
@@ -4240,31 +4292,31 @@
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>0.68145238368578109</v>
+        <v>0.67821045154128368</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>0.20067583160849314</v>
+        <v>0.20624564773701165</v>
       </c>
       <c r="G30">
         <f t="shared" si="3"/>
-        <v>0.11787178470572497</v>
+        <v>0.11554390072170363</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="4"/>
-        <v>1.4674539614804574</v>
+        <v>1.4744685778985354</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="5"/>
-        <v>8.4837945102517018</v>
+        <v>8.654719061359863</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="6"/>
-        <v>4.9831611110546774</v>
+        <v>4.8485871627949306</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999999999922</v>
+        <v>0.99999999999999889</v>
       </c>
       <c r="L30" s="2">
         <v>1.3</v>
@@ -4343,31 +4395,31 @@
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>0.24602935740032922</v>
+        <v>0.30506042222631002</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>0.27564807010386894</v>
+        <v>0.30375758256563662</v>
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
-        <v>0.4783225650452223</v>
+        <v>0.39118198527394493</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="4"/>
-        <v>4.064555590302338</v>
+        <v>3.2780391264853979</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="5"/>
-        <v>2.0906393991792056</v>
+        <v>2.5563549387370164</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="6"/>
-        <v>3.6278142619434366</v>
+        <v>3.2920988887048366</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999254942051</v>
+        <v>0.99999999006589158</v>
       </c>
       <c r="L31" s="2">
         <v>4.8</v>
@@ -4446,31 +4498,31 @@
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>0.64155470101236112</v>
+        <v>0.66703367184491258</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>0.21222921443784729</v>
+        <v>0.20563380187836133</v>
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
-        <v>0.14621607709920911</v>
+        <v>0.12733251634261766</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="4"/>
-        <v>1.5587135413738205</v>
+        <v>1.4991746926870329</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="5"/>
-        <v>6.8391931984434908</v>
+        <v>7.8534535303556563</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="6"/>
-        <v>4.7118866393997632</v>
+        <v>4.8630137208255793</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999254941752</v>
+        <v>0.99999999006589158</v>
       </c>
       <c r="L32" s="2">
         <v>1.43</v>
@@ -4549,31 +4601,31 @@
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>0.70795785741021655</v>
+        <v>0.68940730461667465</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>0.2010765848361333</v>
+        <v>0.21750611419948665</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>9.0965552165714378E-2</v>
+        <v>9.3086573733257336E-2</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="4"/>
-        <v>1.4125134561795867</v>
+        <v>1.4505213294135628</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="5"/>
-        <v>10.993172428374571</v>
+        <v>10.742687800128225</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="6"/>
-        <v>4.9732294827612407</v>
+        <v>4.5975719058768423</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999441206422</v>
+        <v>0.99999999254941863</v>
       </c>
       <c r="L33" s="2">
         <v>1.22</v>
@@ -4652,31 +4704,31 @@
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>0.28236260533382251</v>
+        <v>0.34237382323663235</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>0.30020773537685641</v>
+        <v>0.31099422083251832</v>
       </c>
       <c r="G34">
         <f t="shared" si="3"/>
-        <v>0.41742965183874026</v>
+        <v>0.34663194599674063</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="4"/>
-        <v>3.5415454493974243</v>
+        <v>2.9207840440209356</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="5"/>
-        <v>2.3956132382907862</v>
+        <v>2.8849043244542814</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="6"/>
-        <v>3.3310267596692045</v>
+        <v>3.2154938356186893</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999254941918</v>
+        <v>0.99999999006589135</v>
       </c>
       <c r="L34" s="2">
         <v>3.65</v>
@@ -4755,31 +4807,31 @@
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>0.28440423088599165</v>
+        <v>0.31072527226399532</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>0.27011468857273513</v>
+        <v>0.27861452973655765</v>
       </c>
       <c r="G35">
         <f t="shared" si="3"/>
-        <v>0.4454810730906914</v>
+        <v>0.41066018806533827</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="4"/>
-        <v>3.5161220945439005</v>
+        <v>3.218277009506938</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="5"/>
-        <v>2.2447642793488987</v>
+        <v>2.4351033508047157</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="6"/>
-        <v>3.7021311402349935</v>
+        <v>3.5891882628861609</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999254941818</v>
+        <v>0.99999999006589113</v>
       </c>
       <c r="L35" s="2">
         <v>3.2</v>
@@ -4858,31 +4910,31 @@
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>0.58531507379118408</v>
+        <v>0.65707380224068568</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>0.24088586024736541</v>
+        <v>0.21866374242662368</v>
       </c>
       <c r="G36">
         <f t="shared" si="3"/>
-        <v>0.17379905851086958</v>
+        <v>0.12426244539858239</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="4"/>
-        <v>1.7084815422962405</v>
+        <v>1.5218990569855357</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="5"/>
-        <v>5.7537710996142071</v>
+        <v>8.047483668878515</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="6"/>
-        <v>4.1513437068207368</v>
+        <v>4.5732318897613622</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999254941896</v>
+        <v>0.9999999900658918</v>
       </c>
       <c r="L36" s="2">
         <v>2.2599999999999998</v>
@@ -4961,31 +5013,31 @@
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>0.29356506976464769</v>
+        <v>0.36224370200239631</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>0.27400476499184534</v>
+        <v>0.29077236008723395</v>
       </c>
       <c r="G37">
         <f t="shared" si="3"/>
-        <v>0.43243015034234578</v>
+        <v>0.34698391804215367</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="4"/>
-        <v>3.4063998172592673</v>
+        <v>2.7605724943518406</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="5"/>
-        <v>2.3125122038977191</v>
+        <v>2.8819779476883824</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="6"/>
-        <v>3.6495715686906429</v>
+        <v>3.4391164266782175</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999998509883881</v>
+        <v>0.99999998013178393</v>
       </c>
       <c r="L37" s="2">
         <v>4.7</v>
@@ -5064,31 +5116,31 @@
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>0.1915503442726553</v>
+        <v>0.23557953695165498</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
-        <v>0.24618240461130605</v>
+        <v>0.2876563175608553</v>
       </c>
       <c r="G38">
         <f t="shared" si="3"/>
-        <v>0.56226725111603637</v>
+        <v>0.4767641454874883</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="4"/>
-        <v>5.2205596591180576</v>
+        <v>4.2448508598826962</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="5"/>
-        <v>1.7785136836888757</v>
+        <v>2.0974731624952763</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="6"/>
-        <v>4.0620287285717511</v>
+        <v>3.4763707207245482</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999999999778</v>
+        <v>0.99999999999999867</v>
       </c>
       <c r="L38" s="2">
         <v>7.8</v>
@@ -5167,31 +5219,31 @@
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>0.66662991118552617</v>
+        <v>0.69470901958183462</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
-        <v>0.20983931267667563</v>
+        <v>0.18239124772534798</v>
       </c>
       <c r="G39">
         <f t="shared" si="3"/>
-        <v>0.12353077241250771</v>
+        <v>0.12289972772576277</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="4"/>
-        <v>1.5000827043923257</v>
+        <v>1.4394515859343942</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="5"/>
-        <v>8.0951489290513674</v>
+        <v>8.1367145274022903</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="6"/>
-        <v>4.7655512555972717</v>
+        <v>5.4827192229412232</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999627470948</v>
+        <v>0.99999999503294534</v>
       </c>
       <c r="L39" s="2">
         <v>1.4</v>
@@ -5270,31 +5322,31 @@
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>0.21570974833330808</v>
+        <v>0.24409386280600065</v>
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
-        <v>0.25850597764140226</v>
+        <v>0.26900973122744831</v>
       </c>
       <c r="G40">
         <f t="shared" si="3"/>
-        <v>0.52578427402528893</v>
+        <v>0.48689640596654993</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="4"/>
-        <v>4.6358591010677488</v>
+        <v>4.0967846897272198</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="5"/>
-        <v>1.9019207104545361</v>
+        <v>2.0538249774402741</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="6"/>
-        <v>3.8683824997934599</v>
+        <v>3.7173376421632041</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999999999933</v>
+        <v>0.99999999999999889</v>
       </c>
       <c r="L40" s="2">
         <v>5</v>
@@ -5373,31 +5425,31 @@
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>0.21612330966767659</v>
+        <v>0.22648454719295799</v>
       </c>
       <c r="F41">
         <f t="shared" si="2"/>
-        <v>0.25634342296563373</v>
+        <v>0.27934489547931496</v>
       </c>
       <c r="G41">
         <f t="shared" si="3"/>
-        <v>0.52753327481726842</v>
+        <v>0.49417056726183395</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="4"/>
-        <v>4.626988183447942</v>
+        <v>4.4153122691767139</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="5"/>
-        <v>1.8956150213394383</v>
+        <v>2.02359279618965</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="6"/>
-        <v>3.9010168017225215</v>
+        <v>3.5798040923001166</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000074505788</v>
+        <v>1.0000000099341069</v>
       </c>
       <c r="L41" s="2">
         <v>3.75</v>
@@ -5476,31 +5528,31 @@
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>0.15632605365128222</v>
+        <v>0.19302276925357331</v>
       </c>
       <c r="F42">
         <f t="shared" si="2"/>
-        <v>0.21781735183287748</v>
+        <v>0.24382619109093268</v>
       </c>
       <c r="G42">
         <f t="shared" si="3"/>
-        <v>0.6258565982411286</v>
+        <v>0.56315104462254673</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="4"/>
-        <v>6.3968863579880804</v>
+        <v>5.1807359508261106</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="5"/>
-        <v>1.5978101098723614</v>
+        <v>1.7757225340321481</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="6"/>
-        <v>4.5910024687439037</v>
+        <v>4.1012821285760044</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000037252883</v>
+        <v>1.0000000049670528</v>
       </c>
       <c r="L42" s="2">
         <v>7</v>
@@ -5579,31 +5631,31 @@
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>0.25066131777286654</v>
+        <v>0.30470057102179232</v>
       </c>
       <c r="F43">
         <f t="shared" si="2"/>
-        <v>0.26960887894387209</v>
+        <v>0.29323309837501066</v>
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
-        <v>0.47972978838209934</v>
+        <v>0.40206631073498134</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="4"/>
-        <v>3.9894468316253602</v>
+        <v>3.2819104888663944</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="5"/>
-        <v>2.0845067873990581</v>
+        <v>2.4871519281781898</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="6"/>
-        <v>3.7090766591859268</v>
+        <v>3.4102562280371145</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999998509883803</v>
+        <v>0.99999998013178426</v>
       </c>
       <c r="L43" s="2">
         <v>4.5</v>
@@ -5682,31 +5734,31 @@
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>0.36931851069211896</v>
+        <v>0.40210733412351601</v>
       </c>
       <c r="F44">
         <f t="shared" si="2"/>
-        <v>0.29816453612900384</v>
+        <v>0.31415793416265536</v>
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
-        <v>0.33251695317887642</v>
+        <v>0.28373473171382735</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="4"/>
-        <v>2.7076898965230756</v>
+        <v>2.486898186474829</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="5"/>
-        <v>3.0073654604373008</v>
+        <v>3.5244187201184531</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="6"/>
-        <v>3.3538529195415112</v>
+        <v>3.1831123497337797</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999999999922</v>
+        <v>0.99999999999999878</v>
       </c>
       <c r="L44" s="2">
         <v>2.48</v>
@@ -5785,31 +5837,31 @@
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>0.13820012423915612</v>
+        <v>0.17258364548230731</v>
       </c>
       <c r="F45">
         <f t="shared" si="2"/>
-        <v>0.20769286094422348</v>
+        <v>0.2522277719929033</v>
       </c>
       <c r="G45">
         <f t="shared" si="3"/>
-        <v>0.65410701854190867</v>
+        <v>0.57518858749184232</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" si="4"/>
-        <v>7.2358835095509333</v>
+        <v>5.7942917893834647</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="5"/>
-        <v>1.5288018193553903</v>
+        <v>1.7385602248483114</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="6"/>
-        <v>4.8148019891186964</v>
+        <v>3.964670472639849</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000037252883</v>
+        <v>1.000000004967053</v>
       </c>
       <c r="L45" s="2">
         <v>9</v>
@@ -5888,31 +5940,31 @@
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>0.10467177905934963</v>
+        <v>0.1194442398579719</v>
       </c>
       <c r="F46">
         <f t="shared" si="2"/>
-        <v>0.22211742875974189</v>
+        <v>0.25178899127379661</v>
       </c>
       <c r="G46">
         <f t="shared" si="3"/>
-        <v>0.67321079963148878</v>
+        <v>0.62876677880233833</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="4"/>
-        <v>9.5536734828304866</v>
+        <v>8.3721073631434599</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="5"/>
-        <v>1.4854188324777224</v>
+        <v>1.5904148147024861</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="6"/>
-        <v>4.5021230687920113</v>
+        <v>3.9715795156135121</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000074505802</v>
+        <v>1.0000000099341069</v>
       </c>
       <c r="L46" s="2">
         <v>9.1999999999999993</v>
@@ -5991,31 +6043,31 @@
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>0.5312277545981513</v>
+        <v>0.56292536673102589</v>
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
-        <v>0.27104709711340141</v>
+        <v>0.27582353247312003</v>
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
-        <v>0.19772515573902755</v>
+        <v>0.16125111072996035</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="4"/>
-        <v>1.8824317655549694</v>
+        <v>1.77643442470379</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="5"/>
-        <v>5.057525413305906</v>
+        <v>6.2015076700752347</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="6"/>
-        <v>3.6893957199682434</v>
+        <v>3.6255064643458352</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000074505804</v>
+        <v>1.0000000099341062</v>
       </c>
       <c r="L47" s="2">
         <v>1.91</v>
@@ -6094,31 +6146,31 @@
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>0.21939277482047745</v>
+        <v>0.253463293381884</v>
       </c>
       <c r="F48">
         <f t="shared" si="2"/>
-        <v>0.24274288477156825</v>
+        <v>0.24783767253281033</v>
       </c>
       <c r="G48">
         <f t="shared" si="3"/>
-        <v>0.53786433668266231</v>
+        <v>0.49869902911825137</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="4"/>
-        <v>4.5580352444070691</v>
+        <v>3.9453444585892603</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="5"/>
-        <v>1.8592048808582671</v>
+        <v>2.0052174590516003</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="6"/>
-        <v>4.1195852184958754</v>
+        <v>4.0348990925405568</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="7"/>
-        <v>0.99999999627470804</v>
+        <v>0.99999999503294568</v>
       </c>
       <c r="L48" s="2">
         <v>4.2</v>
@@ -6197,31 +6249,31 @@
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>0.21910194820543849</v>
+        <v>0.2416227487332353</v>
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
-        <v>0.26943511144334192</v>
+        <v>0.28781310678045036</v>
       </c>
       <c r="G49">
         <f t="shared" si="3"/>
-        <v>0.51146294780179913</v>
+        <v>0.47056415442042032</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="4"/>
-        <v>4.5640853866911364</v>
+        <v>4.1386831548053227</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="5"/>
-        <v>1.9551758427426058</v>
+        <v>2.125108745760012</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="6"/>
-        <v>3.7114687638262196</v>
+        <v>3.4744769311802752</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000074505795</v>
+        <v>1.000000009934106</v>
       </c>
       <c r="L49" s="2">
         <v>3.95</v>
@@ -6300,31 +6352,31 @@
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
-        <v>0.29180799528560647</v>
+        <v>0.35170521032085034</v>
       </c>
       <c r="F50">
         <f t="shared" si="2"/>
-        <v>0.30051235854367814</v>
+        <v>0.3125706840145337</v>
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
-        <v>0.40767965362129566</v>
+        <v>0.33572411559872228</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="4"/>
-        <v>3.4269109008519525</v>
+        <v>2.843290263137499</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="5"/>
-        <v>2.4529063226906249</v>
+        <v>2.9786361882780574</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="6"/>
-        <v>3.3276501666890828</v>
+        <v>3.1992763593706144</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000074505802</v>
+        <v>1.0000000099341064</v>
       </c>
       <c r="L50" s="2">
         <v>3.6</v>
@@ -6403,31 +6455,31 @@
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
-        <v>0.30375582074219287</v>
+        <v>0.34647801351495733</v>
       </c>
       <c r="F51">
         <f t="shared" si="2"/>
-        <v>0.27827720020895053</v>
+        <v>0.31061343662093832</v>
       </c>
       <c r="G51">
         <f t="shared" si="3"/>
-        <v>0.41796698649943687</v>
+        <v>0.342908559798211</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="4"/>
-        <v>3.2921179833084793</v>
+        <v>2.8861860233357359</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="5"/>
-        <v>2.3925334591021516</v>
+        <v>2.9162293311909826</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="6"/>
-        <v>3.5935391014755362</v>
+        <v>3.2194357426345492</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="7"/>
-        <v>1.0000000074505802</v>
+        <v>1.0000000099341066</v>
       </c>
       <c r="L51" s="2">
         <v>2.98</v>
@@ -6495,7 +6547,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Submissions!$A$2:$A$6</xm:f>
@@ -6506,4 +6558,3091 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2">
+        <v>0.53829404300000006</v>
+      </c>
+      <c r="H2">
+        <v>0.23738065899999999</v>
+      </c>
+      <c r="I2">
+        <v>0.22432529700000001</v>
+      </c>
+      <c r="J2">
+        <v>0.56460291900000004</v>
+      </c>
+      <c r="K2">
+        <v>0.24420139799999999</v>
+      </c>
+      <c r="L2">
+        <v>0.19119568300000001</v>
+      </c>
+      <c r="M2">
+        <v>0.64816046699999996</v>
+      </c>
+      <c r="N2">
+        <v>0.22483429499999999</v>
+      </c>
+      <c r="O2">
+        <v>0.12700523699999999</v>
+      </c>
+      <c r="P2">
+        <v>0.61153832600000002</v>
+      </c>
+      <c r="Q2">
+        <v>0.229016417</v>
+      </c>
+      <c r="R2">
+        <v>0.15944525700000001</v>
+      </c>
+      <c r="S2">
+        <v>0.57491618499999997</v>
+      </c>
+      <c r="T2">
+        <v>0.23319853800000001</v>
+      </c>
+      <c r="U2">
+        <v>0.19188527699999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3">
+        <v>0.20232155399999999</v>
+      </c>
+      <c r="H3">
+        <v>0.26039715899999999</v>
+      </c>
+      <c r="I3">
+        <v>0.53728129700000005</v>
+      </c>
+      <c r="J3">
+        <v>0.22699050400000001</v>
+      </c>
+      <c r="K3">
+        <v>0.27761493300000001</v>
+      </c>
+      <c r="L3">
+        <v>0.49539457399999998</v>
+      </c>
+      <c r="M3">
+        <v>0.14626919099999999</v>
+      </c>
+      <c r="N3">
+        <v>0.26151314799999997</v>
+      </c>
+      <c r="O3">
+        <v>0.59221766300000001</v>
+      </c>
+      <c r="P3">
+        <v>0.16495331199999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.26114115199999999</v>
+      </c>
+      <c r="R3">
+        <v>0.57390554100000002</v>
+      </c>
+      <c r="S3">
+        <v>0.18363743299999999</v>
+      </c>
+      <c r="T3">
+        <v>0.26076915499999997</v>
+      </c>
+      <c r="U3">
+        <v>0.55559341900000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4">
+        <v>0.32363309400000001</v>
+      </c>
+      <c r="H4">
+        <v>0.28462501000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.39174188599999998</v>
+      </c>
+      <c r="J4">
+        <v>0.35084130099999999</v>
+      </c>
+      <c r="K4">
+        <v>0.31867980800000001</v>
+      </c>
+      <c r="L4">
+        <v>0.330478881</v>
+      </c>
+      <c r="M4">
+        <v>0.403279634</v>
+      </c>
+      <c r="N4">
+        <v>0.31636987799999999</v>
+      </c>
+      <c r="O4">
+        <v>0.28035048499999998</v>
+      </c>
+      <c r="P4">
+        <v>0.37673078799999998</v>
+      </c>
+      <c r="Q4">
+        <v>0.30578825500000001</v>
+      </c>
+      <c r="R4">
+        <v>0.31748095199999998</v>
+      </c>
+      <c r="S4">
+        <v>0.350181941</v>
+      </c>
+      <c r="T4">
+        <v>0.295206633</v>
+      </c>
+      <c r="U4">
+        <v>0.35461141899999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5">
+        <v>0.28249032099999999</v>
+      </c>
+      <c r="H5">
+        <v>0.26628045900000002</v>
+      </c>
+      <c r="I5">
+        <v>0.45122922999999998</v>
+      </c>
+      <c r="J5">
+        <v>0.31335925599999997</v>
+      </c>
+      <c r="K5">
+        <v>0.29839463399999999</v>
+      </c>
+      <c r="L5">
+        <v>0.38824611999999997</v>
+      </c>
+      <c r="M5">
+        <v>0.22649055100000001</v>
+      </c>
+      <c r="N5">
+        <v>0.28661901400000001</v>
+      </c>
+      <c r="O5">
+        <v>0.48689043700000001</v>
+      </c>
+      <c r="P5">
+        <v>0.245157141</v>
+      </c>
+      <c r="Q5">
+        <v>0.27983949600000002</v>
+      </c>
+      <c r="R5">
+        <v>0.47500336799999998</v>
+      </c>
+      <c r="S5">
+        <v>0.26382373100000001</v>
+      </c>
+      <c r="T5">
+        <v>0.27305997700000001</v>
+      </c>
+      <c r="U5">
+        <v>0.46311629900000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.63983689300000002</v>
+      </c>
+      <c r="H6">
+        <v>0.22479234100000001</v>
+      </c>
+      <c r="I6">
+        <v>0.135370766</v>
+      </c>
+      <c r="J6">
+        <v>0.66678967700000003</v>
+      </c>
+      <c r="K6">
+        <v>0.21883298900000001</v>
+      </c>
+      <c r="L6">
+        <v>0.114377334</v>
+      </c>
+      <c r="M6">
+        <v>0.74191658599999999</v>
+      </c>
+      <c r="N6">
+        <v>0.16906254300000001</v>
+      </c>
+      <c r="O6">
+        <v>8.9020871000000001E-2</v>
+      </c>
+      <c r="P6">
+        <v>0.70789002099999998</v>
+      </c>
+      <c r="Q6">
+        <v>0.18763914200000001</v>
+      </c>
+      <c r="R6">
+        <v>0.104470836</v>
+      </c>
+      <c r="S6">
+        <v>0.67386345700000005</v>
+      </c>
+      <c r="T6">
+        <v>0.20621574200000001</v>
+      </c>
+      <c r="U6">
+        <v>0.11992080099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.54968323399999997</v>
+      </c>
+      <c r="H7">
+        <v>0.22900393499999999</v>
+      </c>
+      <c r="I7">
+        <v>0.221312851</v>
+      </c>
+      <c r="J7">
+        <v>0.58297570600000004</v>
+      </c>
+      <c r="K7">
+        <v>0.243601655</v>
+      </c>
+      <c r="L7">
+        <v>0.17342265800000001</v>
+      </c>
+      <c r="M7">
+        <v>0.68473085</v>
+      </c>
+      <c r="N7">
+        <v>0.20039361</v>
+      </c>
+      <c r="O7">
+        <v>0.114875545</v>
+      </c>
+      <c r="P7">
+        <v>0.63971497799999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.209930385</v>
+      </c>
+      <c r="R7">
+        <v>0.15035464700000001</v>
+      </c>
+      <c r="S7">
+        <v>0.59469910599999998</v>
+      </c>
+      <c r="T7">
+        <v>0.21946715999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.18583374899999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.49915034000000003</v>
+      </c>
+      <c r="H8">
+        <v>0.27838244699999998</v>
+      </c>
+      <c r="I8">
+        <v>0.22246722699999999</v>
+      </c>
+      <c r="J8">
+        <v>0.51840945800000005</v>
+      </c>
+      <c r="K8">
+        <v>0.29040382799999997</v>
+      </c>
+      <c r="L8">
+        <v>0.191186729</v>
+      </c>
+      <c r="M8">
+        <v>0.34760676699999998</v>
+      </c>
+      <c r="N8">
+        <v>0.295790842</v>
+      </c>
+      <c r="O8">
+        <v>0.35660239500000002</v>
+      </c>
+      <c r="P8">
+        <v>0.39812129099999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.289988044</v>
+      </c>
+      <c r="R8">
+        <v>0.31189067300000001</v>
+      </c>
+      <c r="S8">
+        <v>0.44863581600000002</v>
+      </c>
+      <c r="T8">
+        <v>0.28418524499999998</v>
+      </c>
+      <c r="U8">
+        <v>0.26717895000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.567816934</v>
+      </c>
+      <c r="H9">
+        <v>0.24548276599999999</v>
+      </c>
+      <c r="I9">
+        <v>0.18670031000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.61429122400000002</v>
+      </c>
+      <c r="K9">
+        <v>0.229445762</v>
+      </c>
+      <c r="L9">
+        <v>0.156263024</v>
+      </c>
+      <c r="M9">
+        <v>0.56998927700000002</v>
+      </c>
+      <c r="N9">
+        <v>0.25849209299999998</v>
+      </c>
+      <c r="O9">
+        <v>0.171518632</v>
+      </c>
+      <c r="P9">
+        <v>0.56926516299999996</v>
+      </c>
+      <c r="Q9">
+        <v>0.25415565099999998</v>
+      </c>
+      <c r="R9">
+        <v>0.176579191</v>
+      </c>
+      <c r="S9">
+        <v>0.56854104900000002</v>
+      </c>
+      <c r="T9">
+        <v>0.24981920799999999</v>
+      </c>
+      <c r="U9">
+        <v>0.18163974999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43268</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.32951749699999999</v>
+      </c>
+      <c r="H10">
+        <v>0.30385546800000002</v>
+      </c>
+      <c r="I10">
+        <v>0.36662704499999998</v>
+      </c>
+      <c r="J10">
+        <v>0.36844265999999998</v>
+      </c>
+      <c r="K10">
+        <v>0.312296713</v>
+      </c>
+      <c r="L10">
+        <v>0.31926063700000001</v>
+      </c>
+      <c r="M10">
+        <v>0.22835702799999999</v>
+      </c>
+      <c r="N10">
+        <v>0.29819850399999998</v>
+      </c>
+      <c r="O10">
+        <v>0.47344447099999998</v>
+      </c>
+      <c r="P10">
+        <v>0.26207718400000002</v>
+      </c>
+      <c r="Q10">
+        <v>0.30008415799999999</v>
+      </c>
+      <c r="R10">
+        <v>0.43783866199999999</v>
+      </c>
+      <c r="S10">
+        <v>0.29579734099999999</v>
+      </c>
+      <c r="T10">
+        <v>0.30196981299999998</v>
+      </c>
+      <c r="U10">
+        <v>0.40223285399999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.61345199900000003</v>
+      </c>
+      <c r="H11">
+        <v>0.22626903500000001</v>
+      </c>
+      <c r="I11">
+        <v>0.160278961</v>
+      </c>
+      <c r="J11">
+        <v>0.63949031599999995</v>
+      </c>
+      <c r="K11">
+        <v>0.2170038</v>
+      </c>
+      <c r="L11">
+        <v>0.14350588</v>
+      </c>
+      <c r="M11">
+        <v>0.64159534799999995</v>
+      </c>
+      <c r="N11">
+        <v>0.22256625699999999</v>
+      </c>
+      <c r="O11">
+        <v>0.135838393</v>
+      </c>
+      <c r="P11">
+        <v>0.63221423200000004</v>
+      </c>
+      <c r="Q11">
+        <v>0.223800517</v>
+      </c>
+      <c r="R11">
+        <v>0.14398524900000001</v>
+      </c>
+      <c r="S11">
+        <v>0.62283311500000005</v>
+      </c>
+      <c r="T11">
+        <v>0.22503477599999999</v>
+      </c>
+      <c r="U11">
+        <v>0.15213210499999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43268</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.59146886499999995</v>
+      </c>
+      <c r="H12">
+        <v>0.24341890799999999</v>
+      </c>
+      <c r="I12">
+        <v>0.165112237</v>
+      </c>
+      <c r="J12">
+        <v>0.63080920900000004</v>
+      </c>
+      <c r="K12">
+        <v>0.22901028400000001</v>
+      </c>
+      <c r="L12">
+        <v>0.140180517</v>
+      </c>
+      <c r="M12">
+        <v>0.66399624899999998</v>
+      </c>
+      <c r="N12">
+        <v>0.21676870500000001</v>
+      </c>
+      <c r="O12">
+        <v>0.119235048</v>
+      </c>
+      <c r="P12">
+        <v>0.63982045399999998</v>
+      </c>
+      <c r="Q12">
+        <v>0.22565210599999999</v>
+      </c>
+      <c r="R12">
+        <v>0.134527445</v>
+      </c>
+      <c r="S12">
+        <v>0.61564465999999995</v>
+      </c>
+      <c r="T12">
+        <v>0.234535507</v>
+      </c>
+      <c r="U12">
+        <v>0.14981984100000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43269</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.45489807199999999</v>
+      </c>
+      <c r="H13">
+        <v>0.29539678000000003</v>
+      </c>
+      <c r="I13">
+        <v>0.249705128</v>
+      </c>
+      <c r="J13">
+        <v>0.479210313</v>
+      </c>
+      <c r="K13">
+        <v>0.28945632199999999</v>
+      </c>
+      <c r="L13">
+        <v>0.231333345</v>
+      </c>
+      <c r="M13">
+        <v>0.46515645999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.30309095400000002</v>
+      </c>
+      <c r="O13">
+        <v>0.23175258100000001</v>
+      </c>
+      <c r="P13">
+        <v>0.46173699699999998</v>
+      </c>
+      <c r="Q13">
+        <v>0.30052622899999998</v>
+      </c>
+      <c r="R13">
+        <v>0.23773676399999999</v>
+      </c>
+      <c r="S13">
+        <v>0.458317535</v>
+      </c>
+      <c r="T13">
+        <v>0.29796150500000002</v>
+      </c>
+      <c r="U13">
+        <v>0.24372094599999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43269</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.67154823200000002</v>
+      </c>
+      <c r="H14">
+        <v>0.221479343</v>
+      </c>
+      <c r="I14">
+        <v>0.10697242999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.69358009799999998</v>
+      </c>
+      <c r="K14">
+        <v>0.22107775700000001</v>
+      </c>
+      <c r="L14">
+        <v>8.5342150000000006E-2</v>
+      </c>
+      <c r="M14">
+        <v>0.78858561299999996</v>
+      </c>
+      <c r="N14">
+        <v>0.15602365500000001</v>
+      </c>
+      <c r="O14">
+        <v>5.5390732999999998E-2</v>
+      </c>
+      <c r="P14">
+        <v>0.74957315300000005</v>
+      </c>
+      <c r="Q14">
+        <v>0.177842218</v>
+      </c>
+      <c r="R14">
+        <v>7.2584631999999996E-2</v>
+      </c>
+      <c r="S14">
+        <v>0.71056069200000005</v>
+      </c>
+      <c r="T14">
+        <v>0.19966078100000001</v>
+      </c>
+      <c r="U14">
+        <v>8.9778530999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43269</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.14581660900000001</v>
+      </c>
+      <c r="H15">
+        <v>0.26087432199999999</v>
+      </c>
+      <c r="I15">
+        <v>0.59330907899999996</v>
+      </c>
+      <c r="J15">
+        <v>0.166618132</v>
+      </c>
+      <c r="K15">
+        <v>0.29557820600000001</v>
+      </c>
+      <c r="L15">
+        <v>0.53780367200000001</v>
+      </c>
+      <c r="M15">
+        <v>0.11371284</v>
+      </c>
+      <c r="N15">
+        <v>0.22645410199999999</v>
+      </c>
+      <c r="O15">
+        <v>0.65983306100000005</v>
+      </c>
+      <c r="P15">
+        <v>0.124414096</v>
+      </c>
+      <c r="Q15">
+        <v>0.23792750900000001</v>
+      </c>
+      <c r="R15">
+        <v>0.63765839999999996</v>
+      </c>
+      <c r="S15">
+        <v>0.13511535199999999</v>
+      </c>
+      <c r="T15">
+        <v>0.249400915</v>
+      </c>
+      <c r="U15">
+        <v>0.61548373999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.59322111</v>
+      </c>
+      <c r="H16">
+        <v>0.24972894000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.15704996500000001</v>
+      </c>
+      <c r="J16">
+        <v>0.61204639500000002</v>
+      </c>
+      <c r="K16">
+        <v>0.248348286</v>
+      </c>
+      <c r="L16">
+        <v>0.139605334</v>
+      </c>
+      <c r="M16">
+        <v>0.57951366999999998</v>
+      </c>
+      <c r="N16">
+        <v>0.25761077100000002</v>
+      </c>
+      <c r="O16">
+        <v>0.162875564</v>
+      </c>
+      <c r="P16">
+        <v>0.584082816</v>
+      </c>
+      <c r="Q16">
+        <v>0.25498349399999998</v>
+      </c>
+      <c r="R16">
+        <v>0.16093369699999999</v>
+      </c>
+      <c r="S16">
+        <v>0.588651963</v>
+      </c>
+      <c r="T16">
+        <v>0.25235621699999999</v>
+      </c>
+      <c r="U16">
+        <v>0.158991831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0.46852064399999999</v>
+      </c>
+      <c r="H17">
+        <v>0.247457593</v>
+      </c>
+      <c r="I17">
+        <v>0.28402176800000001</v>
+      </c>
+      <c r="J17">
+        <v>0.51066439200000002</v>
+      </c>
+      <c r="K17">
+        <v>0.24274916499999999</v>
+      </c>
+      <c r="L17">
+        <v>0.24658644800000001</v>
+      </c>
+      <c r="M17">
+        <v>0.423960964</v>
+      </c>
+      <c r="N17">
+        <v>0.28844714500000002</v>
+      </c>
+      <c r="O17">
+        <v>0.28759189200000002</v>
+      </c>
+      <c r="P17">
+        <v>0.43881419100000002</v>
+      </c>
+      <c r="Q17">
+        <v>0.27478396100000002</v>
+      </c>
+      <c r="R17">
+        <v>0.28640185099999999</v>
+      </c>
+      <c r="S17">
+        <v>0.45366741700000002</v>
+      </c>
+      <c r="T17">
+        <v>0.26112077700000003</v>
+      </c>
+      <c r="U17">
+        <v>0.28521181000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.410184626</v>
+      </c>
+      <c r="H18">
+        <v>0.29882082700000001</v>
+      </c>
+      <c r="I18">
+        <v>0.290994537</v>
+      </c>
+      <c r="J18">
+        <v>0.46390611799999998</v>
+      </c>
+      <c r="K18">
+        <v>0.29358448500000001</v>
+      </c>
+      <c r="L18">
+        <v>0.24250938699999999</v>
+      </c>
+      <c r="M18">
+        <v>0.441029059</v>
+      </c>
+      <c r="N18">
+        <v>0.30174912300000001</v>
+      </c>
+      <c r="O18">
+        <v>0.25722181599999999</v>
+      </c>
+      <c r="P18">
+        <v>0.43074758099999999</v>
+      </c>
+      <c r="Q18">
+        <v>0.300773024</v>
+      </c>
+      <c r="R18">
+        <v>0.26847938999999998</v>
+      </c>
+      <c r="S18">
+        <v>0.42046610400000001</v>
+      </c>
+      <c r="T18">
+        <v>0.29979692499999999</v>
+      </c>
+      <c r="U18">
+        <v>0.27973696399999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.619666669</v>
+      </c>
+      <c r="H19">
+        <v>0.211984004</v>
+      </c>
+      <c r="I19">
+        <v>0.16834933699999999</v>
+      </c>
+      <c r="J19">
+        <v>0.64905474200000002</v>
+      </c>
+      <c r="K19">
+        <v>0.211348544</v>
+      </c>
+      <c r="L19">
+        <v>0.139596725</v>
+      </c>
+      <c r="M19">
+        <v>0.58872129399999995</v>
+      </c>
+      <c r="N19">
+        <v>0.25061810899999998</v>
+      </c>
+      <c r="O19">
+        <v>0.16066059899999999</v>
+      </c>
+      <c r="P19">
+        <v>0.59903641900000004</v>
+      </c>
+      <c r="Q19">
+        <v>0.237740074</v>
+      </c>
+      <c r="R19">
+        <v>0.16322351199999999</v>
+      </c>
+      <c r="S19">
+        <v>0.60935154400000002</v>
+      </c>
+      <c r="T19">
+        <v>0.22486203900000001</v>
+      </c>
+      <c r="U19">
+        <v>0.16578642399999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.64883935800000003</v>
+      </c>
+      <c r="H20">
+        <v>0.217597023</v>
+      </c>
+      <c r="I20">
+        <v>0.13356362099999999</v>
+      </c>
+      <c r="J20">
+        <v>0.66449485900000005</v>
+      </c>
+      <c r="K20">
+        <v>0.21956869300000001</v>
+      </c>
+      <c r="L20">
+        <v>0.11593645</v>
+      </c>
+      <c r="M20">
+        <v>0.74530282999999997</v>
+      </c>
+      <c r="N20">
+        <v>0.170077381</v>
+      </c>
+      <c r="O20">
+        <v>8.4619789000000001E-2</v>
+      </c>
+      <c r="P20">
+        <v>0.71314833899999996</v>
+      </c>
+      <c r="Q20">
+        <v>0.185917262</v>
+      </c>
+      <c r="R20">
+        <v>0.10093439999999999</v>
+      </c>
+      <c r="S20">
+        <v>0.68099384799999996</v>
+      </c>
+      <c r="T20">
+        <v>0.201757143</v>
+      </c>
+      <c r="U20">
+        <v>0.117249011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.17769824100000001</v>
+      </c>
+      <c r="H21">
+        <v>0.21906059999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.60324116400000005</v>
+      </c>
+      <c r="J21">
+        <v>0.19675556999999999</v>
+      </c>
+      <c r="K21">
+        <v>0.25680894399999998</v>
+      </c>
+      <c r="L21">
+        <v>0.546435491</v>
+      </c>
+      <c r="M21">
+        <v>8.0904528000000003E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.165310507</v>
+      </c>
+      <c r="O21">
+        <v>0.753784966</v>
+      </c>
+      <c r="P21">
+        <v>0.113169099</v>
+      </c>
+      <c r="Q21">
+        <v>0.183227205</v>
+      </c>
+      <c r="R21">
+        <v>0.70360369899999997</v>
+      </c>
+      <c r="S21">
+        <v>0.14543366999999999</v>
+      </c>
+      <c r="T21">
+        <v>0.20114390200000001</v>
+      </c>
+      <c r="U21">
+        <v>0.65342243099999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.43999610700000003</v>
+      </c>
+      <c r="H22">
+        <v>0.270947734</v>
+      </c>
+      <c r="I22">
+        <v>0.28905615899999998</v>
+      </c>
+      <c r="J22">
+        <v>0.46436635900000001</v>
+      </c>
+      <c r="K22">
+        <v>0.28625204500000001</v>
+      </c>
+      <c r="L22">
+        <v>0.24938159600000001</v>
+      </c>
+      <c r="M22">
+        <v>0.53217325500000001</v>
+      </c>
+      <c r="N22">
+        <v>0.27109409699999998</v>
+      </c>
+      <c r="O22">
+        <v>0.19673264800000001</v>
+      </c>
+      <c r="P22">
+        <v>0.50144753900000005</v>
+      </c>
+      <c r="Q22">
+        <v>0.27104530900000001</v>
+      </c>
+      <c r="R22">
+        <v>0.22750715199999999</v>
+      </c>
+      <c r="S22">
+        <v>0.47072182299999998</v>
+      </c>
+      <c r="T22">
+        <v>0.27099652099999999</v>
+      </c>
+      <c r="U22">
+        <v>0.258281655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0.44447742200000001</v>
+      </c>
+      <c r="H23">
+        <v>0.245495291</v>
+      </c>
+      <c r="I23">
+        <v>0.31002727800000002</v>
+      </c>
+      <c r="J23">
+        <v>0.49297938400000002</v>
+      </c>
+      <c r="K23">
+        <v>0.25428282299999999</v>
+      </c>
+      <c r="L23">
+        <v>0.25273778299999999</v>
+      </c>
+      <c r="M23">
+        <v>0.58240027299999997</v>
+      </c>
+      <c r="N23">
+        <v>0.20777172499999999</v>
+      </c>
+      <c r="O23">
+        <v>0.20982799999999999</v>
+      </c>
+      <c r="P23">
+        <v>0.53642598900000005</v>
+      </c>
+      <c r="Q23">
+        <v>0.220346247</v>
+      </c>
+      <c r="R23">
+        <v>0.24322775899999999</v>
+      </c>
+      <c r="S23">
+        <v>0.49045170599999999</v>
+      </c>
+      <c r="T23">
+        <v>0.232920769</v>
+      </c>
+      <c r="U23">
+        <v>0.27662751800000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.45073134599999998</v>
+      </c>
+      <c r="H24">
+        <v>0.249966623</v>
+      </c>
+      <c r="I24">
+        <v>0.29930203100000002</v>
+      </c>
+      <c r="J24">
+        <v>0.49473176600000002</v>
+      </c>
+      <c r="K24">
+        <v>0.260099103</v>
+      </c>
+      <c r="L24">
+        <v>0.24516913000000001</v>
+      </c>
+      <c r="M24">
+        <v>0.482662392</v>
+      </c>
+      <c r="N24">
+        <v>0.27686216299999999</v>
+      </c>
+      <c r="O24">
+        <v>0.24047544500000001</v>
+      </c>
+      <c r="P24">
+        <v>0.47201871000000001</v>
+      </c>
+      <c r="Q24">
+        <v>0.26789698299999998</v>
+      </c>
+      <c r="R24">
+        <v>0.26008430700000001</v>
+      </c>
+      <c r="S24">
+        <v>0.46137502800000002</v>
+      </c>
+      <c r="T24">
+        <v>0.25893180300000002</v>
+      </c>
+      <c r="U24">
+        <v>0.27969316900000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.73844739299999995</v>
+      </c>
+      <c r="H25">
+        <v>0.17480838000000001</v>
+      </c>
+      <c r="I25">
+        <v>8.6744230000000005E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.73567894099999998</v>
+      </c>
+      <c r="K25">
+        <v>0.18893009699999999</v>
+      </c>
+      <c r="L25">
+        <v>7.5390965000000004E-2</v>
+      </c>
+      <c r="M25">
+        <v>0.77707690799999996</v>
+      </c>
+      <c r="N25">
+        <v>0.16416999099999999</v>
+      </c>
+      <c r="O25">
+        <v>5.8753102000000001E-2</v>
+      </c>
+      <c r="P25">
+        <v>0.76420040300000003</v>
+      </c>
+      <c r="Q25">
+        <v>0.16771612</v>
+      </c>
+      <c r="R25">
+        <v>6.8083478000000003E-2</v>
+      </c>
+      <c r="S25">
+        <v>0.75132389799999999</v>
+      </c>
+      <c r="T25">
+        <v>0.17126225</v>
+      </c>
+      <c r="U25">
+        <v>7.7413854000000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.285807278</v>
+      </c>
+      <c r="H26">
+        <v>0.26957720000000002</v>
+      </c>
+      <c r="I26">
+        <v>0.44461552199999999</v>
+      </c>
+      <c r="J26">
+        <v>0.30437449599999999</v>
+      </c>
+      <c r="K26">
+        <v>0.306950422</v>
+      </c>
+      <c r="L26">
+        <v>0.38867508200000001</v>
+      </c>
+      <c r="M26">
+        <v>0.353078999</v>
+      </c>
+      <c r="N26">
+        <v>0.29973672299999998</v>
+      </c>
+      <c r="O26">
+        <v>0.34718427800000001</v>
+      </c>
+      <c r="P26">
+        <v>0.33065509199999998</v>
+      </c>
+      <c r="Q26">
+        <v>0.28968354899999998</v>
+      </c>
+      <c r="R26">
+        <v>0.37966136</v>
+      </c>
+      <c r="S26">
+        <v>0.30823118500000002</v>
+      </c>
+      <c r="T26">
+        <v>0.27963037400000001</v>
+      </c>
+      <c r="U26">
+        <v>0.41213844100000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.23024750899999999</v>
+      </c>
+      <c r="H27">
+        <v>0.27823376999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.49151871000000003</v>
+      </c>
+      <c r="J27">
+        <v>0.26178145000000003</v>
+      </c>
+      <c r="K27">
+        <v>0.29017279299999998</v>
+      </c>
+      <c r="L27">
+        <v>0.44804574699999999</v>
+      </c>
+      <c r="M27">
+        <v>0.29974543599999998</v>
+      </c>
+      <c r="N27">
+        <v>0.29924220400000001</v>
+      </c>
+      <c r="O27">
+        <v>0.40101235800000001</v>
+      </c>
+      <c r="P27">
+        <v>0.27657946</v>
+      </c>
+      <c r="Q27">
+        <v>0.29223939300000001</v>
+      </c>
+      <c r="R27">
+        <v>0.43118114200000002</v>
+      </c>
+      <c r="S27">
+        <v>0.25341348499999999</v>
+      </c>
+      <c r="T27">
+        <v>0.28523658099999999</v>
+      </c>
+      <c r="U27">
+        <v>0.46134992600000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43274</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0.66837246400000005</v>
+      </c>
+      <c r="H28">
+        <v>0.206332495</v>
+      </c>
+      <c r="I28">
+        <v>0.12529504</v>
+      </c>
+      <c r="J28">
+        <v>0.67821045199999996</v>
+      </c>
+      <c r="K28">
+        <v>0.206245648</v>
+      </c>
+      <c r="L28">
+        <v>0.115543901</v>
+      </c>
+      <c r="M28">
+        <v>0.70761222199999996</v>
+      </c>
+      <c r="N28">
+        <v>0.18936250399999999</v>
+      </c>
+      <c r="O28">
+        <v>0.103025274</v>
+      </c>
+      <c r="P28">
+        <v>0.69453230300000002</v>
+      </c>
+      <c r="Q28">
+        <v>0.19501916799999999</v>
+      </c>
+      <c r="R28">
+        <v>0.110448529</v>
+      </c>
+      <c r="S28">
+        <v>0.68145238399999997</v>
+      </c>
+      <c r="T28">
+        <v>0.200675832</v>
+      </c>
+      <c r="U28">
+        <v>0.11787178500000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43274</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.260463693</v>
+      </c>
+      <c r="H29">
+        <v>0.276161137</v>
+      </c>
+      <c r="I29">
+        <v>0.46337516099999998</v>
+      </c>
+      <c r="J29">
+        <v>0.305060422</v>
+      </c>
+      <c r="K29">
+        <v>0.303757583</v>
+      </c>
+      <c r="L29">
+        <v>0.39118198500000001</v>
+      </c>
+      <c r="M29">
+        <v>0.21716068699999999</v>
+      </c>
+      <c r="N29">
+        <v>0.27462193699999998</v>
+      </c>
+      <c r="O29">
+        <v>0.508217374</v>
+      </c>
+      <c r="P29">
+        <v>0.23159502200000001</v>
+      </c>
+      <c r="Q29">
+        <v>0.27513500299999999</v>
+      </c>
+      <c r="R29">
+        <v>0.49326997</v>
+      </c>
+      <c r="S29">
+        <v>0.246029357</v>
+      </c>
+      <c r="T29">
+        <v>0.27564807000000002</v>
+      </c>
+      <c r="U29">
+        <v>0.47832256499999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43274</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0.632321884</v>
+      </c>
+      <c r="H30">
+        <v>0.21362213999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.15405596599999999</v>
+      </c>
+      <c r="J30">
+        <v>0.66703367199999997</v>
+      </c>
+      <c r="K30">
+        <v>0.205633802</v>
+      </c>
+      <c r="L30">
+        <v>0.12733251600000001</v>
+      </c>
+      <c r="M30">
+        <v>0.66002033500000001</v>
+      </c>
+      <c r="N30">
+        <v>0.20944336199999999</v>
+      </c>
+      <c r="O30">
+        <v>0.13053629999999999</v>
+      </c>
+      <c r="P30">
+        <v>0.65078751800000001</v>
+      </c>
+      <c r="Q30">
+        <v>0.21083628800000001</v>
+      </c>
+      <c r="R30">
+        <v>0.13837618800000001</v>
+      </c>
+      <c r="S30">
+        <v>0.641554701</v>
+      </c>
+      <c r="T30">
+        <v>0.212229214</v>
+      </c>
+      <c r="U30">
+        <v>0.146216077</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43275</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0.67913880299999996</v>
+      </c>
+      <c r="H31">
+        <v>0.21915330899999999</v>
+      </c>
+      <c r="I31">
+        <v>0.101707881</v>
+      </c>
+      <c r="J31">
+        <v>0.68940730500000003</v>
+      </c>
+      <c r="K31">
+        <v>0.217506114</v>
+      </c>
+      <c r="L31">
+        <v>9.3086574000000005E-2</v>
+      </c>
+      <c r="M31">
+        <v>0.76559596699999999</v>
+      </c>
+      <c r="N31">
+        <v>0.164923137</v>
+      </c>
+      <c r="O31">
+        <v>6.9480894000000001E-2</v>
+      </c>
+      <c r="P31">
+        <v>0.73677691199999995</v>
+      </c>
+      <c r="Q31">
+        <v>0.18299986100000001</v>
+      </c>
+      <c r="R31">
+        <v>8.0223222999999996E-2</v>
+      </c>
+      <c r="S31">
+        <v>0.70795785700000002</v>
+      </c>
+      <c r="T31">
+        <v>0.201076585</v>
+      </c>
+      <c r="U31">
+        <v>9.0965552000000005E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43275</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0.289060763</v>
+      </c>
+      <c r="H32">
+        <v>0.30209455099999999</v>
+      </c>
+      <c r="I32">
+        <v>0.40884467699999999</v>
+      </c>
+      <c r="J32">
+        <v>0.34237382300000002</v>
+      </c>
+      <c r="K32">
+        <v>0.31099422100000002</v>
+      </c>
+      <c r="L32">
+        <v>0.34663194600000002</v>
+      </c>
+      <c r="M32">
+        <v>0.26896629100000002</v>
+      </c>
+      <c r="N32">
+        <v>0.29643410399999998</v>
+      </c>
+      <c r="O32">
+        <v>0.43459960199999997</v>
+      </c>
+      <c r="P32">
+        <v>0.27566444800000001</v>
+      </c>
+      <c r="Q32">
+        <v>0.29832091999999999</v>
+      </c>
+      <c r="R32">
+        <v>0.42601462699999998</v>
+      </c>
+      <c r="S32">
+        <v>0.28236260499999999</v>
+      </c>
+      <c r="T32">
+        <v>0.30020773499999998</v>
+      </c>
+      <c r="U32">
+        <v>0.41742965199999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43275</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0.28049273499999999</v>
+      </c>
+      <c r="H33">
+        <v>0.25825572499999999</v>
+      </c>
+      <c r="I33">
+        <v>0.46125153000000002</v>
+      </c>
+      <c r="J33">
+        <v>0.310725272</v>
+      </c>
+      <c r="K33">
+        <v>0.27861453000000003</v>
+      </c>
+      <c r="L33">
+        <v>0.41066018799999998</v>
+      </c>
+      <c r="M33">
+        <v>0.29222722200000001</v>
+      </c>
+      <c r="N33">
+        <v>0.29383261599999999</v>
+      </c>
+      <c r="O33">
+        <v>0.41394016</v>
+      </c>
+      <c r="P33">
+        <v>0.28831572599999999</v>
+      </c>
+      <c r="Q33">
+        <v>0.28197365200000002</v>
+      </c>
+      <c r="R33">
+        <v>0.42971061700000002</v>
+      </c>
+      <c r="S33">
+        <v>0.28440423100000001</v>
+      </c>
+      <c r="T33">
+        <v>0.27011468900000002</v>
+      </c>
+      <c r="U33">
+        <v>0.44548107300000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0.64094734499999995</v>
+      </c>
+      <c r="H34">
+        <v>0.216111673</v>
+      </c>
+      <c r="I34">
+        <v>0.142940973</v>
+      </c>
+      <c r="J34">
+        <v>0.65707380199999998</v>
+      </c>
+      <c r="K34">
+        <v>0.21866374199999999</v>
+      </c>
+      <c r="L34">
+        <v>0.124262445</v>
+      </c>
+      <c r="M34">
+        <v>0.47405053200000002</v>
+      </c>
+      <c r="N34">
+        <v>0.29043423600000001</v>
+      </c>
+      <c r="O34">
+        <v>0.23551522999999999</v>
+      </c>
+      <c r="P34">
+        <v>0.52968280300000004</v>
+      </c>
+      <c r="Q34">
+        <v>0.26566004799999998</v>
+      </c>
+      <c r="R34">
+        <v>0.20465714400000001</v>
+      </c>
+      <c r="S34">
+        <v>0.58531507400000005</v>
+      </c>
+      <c r="T34">
+        <v>0.24088586000000001</v>
+      </c>
+      <c r="U34">
+        <v>0.17379905900000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0.32538777400000002</v>
+      </c>
+      <c r="H35">
+        <v>0.27538261400000003</v>
+      </c>
+      <c r="I35">
+        <v>0.39922959200000002</v>
+      </c>
+      <c r="J35">
+        <v>0.362243702</v>
+      </c>
+      <c r="K35">
+        <v>0.29077236000000001</v>
+      </c>
+      <c r="L35">
+        <v>0.346983918</v>
+      </c>
+      <c r="M35">
+        <v>0.229919661</v>
+      </c>
+      <c r="N35">
+        <v>0.27124906599999998</v>
+      </c>
+      <c r="O35">
+        <v>0.49883126799999999</v>
+      </c>
+      <c r="P35">
+        <v>0.26174236499999998</v>
+      </c>
+      <c r="Q35">
+        <v>0.27262691500000003</v>
+      </c>
+      <c r="R35">
+        <v>0.46563070899999998</v>
+      </c>
+      <c r="S35">
+        <v>0.29356506999999998</v>
+      </c>
+      <c r="T35">
+        <v>0.27400476499999998</v>
+      </c>
+      <c r="U35">
+        <v>0.43243015000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0.21526284400000001</v>
+      </c>
+      <c r="H36">
+        <v>0.258671341</v>
+      </c>
+      <c r="I36">
+        <v>0.52606581500000005</v>
+      </c>
+      <c r="J36">
+        <v>0.23557953700000001</v>
+      </c>
+      <c r="K36">
+        <v>0.28765631800000002</v>
+      </c>
+      <c r="L36">
+        <v>0.47676414499999997</v>
+      </c>
+      <c r="M36">
+        <v>0.14412534399999999</v>
+      </c>
+      <c r="N36">
+        <v>0.22120453200000001</v>
+      </c>
+      <c r="O36">
+        <v>0.63467012300000003</v>
+      </c>
+      <c r="P36">
+        <v>0.16783784400000001</v>
+      </c>
+      <c r="Q36">
+        <v>0.23369346899999999</v>
+      </c>
+      <c r="R36">
+        <v>0.598468687</v>
+      </c>
+      <c r="S36">
+        <v>0.19155034400000001</v>
+      </c>
+      <c r="T36">
+        <v>0.24618240499999999</v>
+      </c>
+      <c r="U36">
+        <v>0.56226725099999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.66784540599999997</v>
+      </c>
+      <c r="H37">
+        <v>0.20612092500000001</v>
+      </c>
+      <c r="I37">
+        <v>0.12603366299999999</v>
+      </c>
+      <c r="J37">
+        <v>0.69470902000000001</v>
+      </c>
+      <c r="K37">
+        <v>0.18239124800000001</v>
+      </c>
+      <c r="L37">
+        <v>0.122899728</v>
+      </c>
+      <c r="M37">
+        <v>0.664198921</v>
+      </c>
+      <c r="N37">
+        <v>0.21727608800000001</v>
+      </c>
+      <c r="O37">
+        <v>0.11852499</v>
+      </c>
+      <c r="P37">
+        <v>0.66541441599999995</v>
+      </c>
+      <c r="Q37">
+        <v>0.21355769999999999</v>
+      </c>
+      <c r="R37">
+        <v>0.121027881</v>
+      </c>
+      <c r="S37">
+        <v>0.66662991100000002</v>
+      </c>
+      <c r="T37">
+        <v>0.209839313</v>
+      </c>
+      <c r="U37">
+        <v>0.123530772</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0.22485064499999999</v>
+      </c>
+      <c r="H38">
+        <v>0.25869881099999997</v>
+      </c>
+      <c r="I38">
+        <v>0.51645054400000001</v>
+      </c>
+      <c r="J38">
+        <v>0.24409386299999999</v>
+      </c>
+      <c r="K38">
+        <v>0.26900973099999997</v>
+      </c>
+      <c r="L38">
+        <v>0.486896406</v>
+      </c>
+      <c r="M38">
+        <v>0.19742795499999999</v>
+      </c>
+      <c r="N38">
+        <v>0.25812031000000002</v>
+      </c>
+      <c r="O38">
+        <v>0.54445173499999999</v>
+      </c>
+      <c r="P38">
+        <v>0.206568852</v>
+      </c>
+      <c r="Q38">
+        <v>0.25831314399999999</v>
+      </c>
+      <c r="R38">
+        <v>0.53511800399999998</v>
+      </c>
+      <c r="S38">
+        <v>0.21570974800000001</v>
+      </c>
+      <c r="T38">
+        <v>0.25850597800000003</v>
+      </c>
+      <c r="U38">
+        <v>0.52578427400000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0.20393805500000001</v>
+      </c>
+      <c r="H39">
+        <v>0.243088467</v>
+      </c>
+      <c r="I39">
+        <v>0.55297348800000001</v>
+      </c>
+      <c r="J39">
+        <v>0.22648454700000001</v>
+      </c>
+      <c r="K39">
+        <v>0.27934489499999998</v>
+      </c>
+      <c r="L39">
+        <v>0.49417056700000001</v>
+      </c>
+      <c r="M39">
+        <v>0.24049382</v>
+      </c>
+      <c r="N39">
+        <v>0.28285333499999998</v>
+      </c>
+      <c r="O39">
+        <v>0.47665284800000002</v>
+      </c>
+      <c r="P39">
+        <v>0.22830856499999999</v>
+      </c>
+      <c r="Q39">
+        <v>0.269598379</v>
+      </c>
+      <c r="R39">
+        <v>0.50209306099999995</v>
+      </c>
+      <c r="S39">
+        <v>0.21612331000000001</v>
+      </c>
+      <c r="T39">
+        <v>0.25634342300000001</v>
+      </c>
+      <c r="U39">
+        <v>0.52753327500000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0.16290137099999999</v>
+      </c>
+      <c r="H40">
+        <v>0.21798368800000001</v>
+      </c>
+      <c r="I40">
+        <v>0.61911494499999997</v>
+      </c>
+      <c r="J40">
+        <v>0.19302276900000001</v>
+      </c>
+      <c r="K40">
+        <v>0.243826191</v>
+      </c>
+      <c r="L40">
+        <v>0.56315104500000002</v>
+      </c>
+      <c r="M40">
+        <v>0.143175418</v>
+      </c>
+      <c r="N40">
+        <v>0.21748467899999999</v>
+      </c>
+      <c r="O40">
+        <v>0.63933990399999996</v>
+      </c>
+      <c r="P40">
+        <v>0.149750736</v>
+      </c>
+      <c r="Q40">
+        <v>0.217651015</v>
+      </c>
+      <c r="R40">
+        <v>0.632598251</v>
+      </c>
+      <c r="S40">
+        <v>0.15632605399999999</v>
+      </c>
+      <c r="T40">
+        <v>0.21781735199999999</v>
+      </c>
+      <c r="U40">
+        <v>0.62585659800000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.26429879299999998</v>
+      </c>
+      <c r="H41">
+        <v>0.27085221300000001</v>
+      </c>
+      <c r="I41">
+        <v>0.46484897400000003</v>
+      </c>
+      <c r="J41">
+        <v>0.30470057099999998</v>
+      </c>
+      <c r="K41">
+        <v>0.29323309800000003</v>
+      </c>
+      <c r="L41">
+        <v>0.40206631100000001</v>
+      </c>
+      <c r="M41">
+        <v>0.223386367</v>
+      </c>
+      <c r="N41">
+        <v>0.267122211</v>
+      </c>
+      <c r="O41">
+        <v>0.50949141600000003</v>
+      </c>
+      <c r="P41">
+        <v>0.23702384300000001</v>
+      </c>
+      <c r="Q41">
+        <v>0.26836554499999998</v>
+      </c>
+      <c r="R41">
+        <v>0.49461060200000001</v>
+      </c>
+      <c r="S41">
+        <v>0.25066131800000002</v>
+      </c>
+      <c r="T41">
+        <v>0.26960887900000002</v>
+      </c>
+      <c r="U41">
+        <v>0.47972978799999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0.36297484299999999</v>
+      </c>
+      <c r="H42">
+        <v>0.29399284399999998</v>
+      </c>
+      <c r="I42">
+        <v>0.34303231299999998</v>
+      </c>
+      <c r="J42">
+        <v>0.40210733399999998</v>
+      </c>
+      <c r="K42">
+        <v>0.31415793400000003</v>
+      </c>
+      <c r="L42">
+        <v>0.28373473199999999</v>
+      </c>
+      <c r="M42">
+        <v>0.38200584700000001</v>
+      </c>
+      <c r="N42">
+        <v>0.30650791999999999</v>
+      </c>
+      <c r="O42">
+        <v>0.31148623399999997</v>
+      </c>
+      <c r="P42">
+        <v>0.37566217899999998</v>
+      </c>
+      <c r="Q42">
+        <v>0.30233622799999998</v>
+      </c>
+      <c r="R42">
+        <v>0.32200159299999997</v>
+      </c>
+      <c r="S42">
+        <v>0.36931851100000002</v>
+      </c>
+      <c r="T42">
+        <v>0.29816453599999998</v>
+      </c>
+      <c r="U42">
+        <v>0.332516953</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0.15020013600000001</v>
+      </c>
+      <c r="H43">
+        <v>0.21907470800000001</v>
+      </c>
+      <c r="I43">
+        <v>0.63072516099999998</v>
+      </c>
+      <c r="J43">
+        <v>0.17258364500000001</v>
+      </c>
+      <c r="K43">
+        <v>0.25222777200000002</v>
+      </c>
+      <c r="L43">
+        <v>0.57518858699999997</v>
+      </c>
+      <c r="M43">
+        <v>0.1142001</v>
+      </c>
+      <c r="N43">
+        <v>0.18492916700000001</v>
+      </c>
+      <c r="O43">
+        <v>0.70087073499999997</v>
+      </c>
+      <c r="P43">
+        <v>0.126200112</v>
+      </c>
+      <c r="Q43">
+        <v>0.19631101400000001</v>
+      </c>
+      <c r="R43">
+        <v>0.67748887700000004</v>
+      </c>
+      <c r="S43">
+        <v>0.13820012400000001</v>
+      </c>
+      <c r="T43">
+        <v>0.20769286100000001</v>
+      </c>
+      <c r="U43">
+        <v>0.65410701900000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0.104730511</v>
+      </c>
+      <c r="H44">
+        <v>0.223326316</v>
+      </c>
+      <c r="I44">
+        <v>0.67194318399999997</v>
+      </c>
+      <c r="J44">
+        <v>0.11944423999999999</v>
+      </c>
+      <c r="K44">
+        <v>0.25178899100000002</v>
+      </c>
+      <c r="L44">
+        <v>0.628766779</v>
+      </c>
+      <c r="M44">
+        <v>0.10455431599999999</v>
+      </c>
+      <c r="N44">
+        <v>0.21969965499999999</v>
+      </c>
+      <c r="O44">
+        <v>0.67574603099999997</v>
+      </c>
+      <c r="P44">
+        <v>0.104613048</v>
+      </c>
+      <c r="Q44">
+        <v>0.22090854200000001</v>
+      </c>
+      <c r="R44">
+        <v>0.67447841600000003</v>
+      </c>
+      <c r="S44">
+        <v>0.10467177900000001</v>
+      </c>
+      <c r="T44">
+        <v>0.22211742900000001</v>
+      </c>
+      <c r="U44">
+        <v>0.6732108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0.53844992199999997</v>
+      </c>
+      <c r="H45">
+        <v>0.27001002699999999</v>
+      </c>
+      <c r="I45">
+        <v>0.19154006000000001</v>
+      </c>
+      <c r="J45">
+        <v>0.56292536699999995</v>
+      </c>
+      <c r="K45">
+        <v>0.27582353199999998</v>
+      </c>
+      <c r="L45">
+        <v>0.161251111</v>
+      </c>
+      <c r="M45">
+        <v>0.51678341900000002</v>
+      </c>
+      <c r="N45">
+        <v>0.27312123700000002</v>
+      </c>
+      <c r="O45">
+        <v>0.21009534699999999</v>
+      </c>
+      <c r="P45">
+        <v>0.52400558699999999</v>
+      </c>
+      <c r="Q45">
+        <v>0.27208416699999999</v>
+      </c>
+      <c r="R45">
+        <v>0.20391025099999999</v>
+      </c>
+      <c r="S45">
+        <v>0.53122775499999997</v>
+      </c>
+      <c r="T45">
+        <v>0.27104709700000001</v>
+      </c>
+      <c r="U45">
+        <v>0.19772515600000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0.21814024700000001</v>
+      </c>
+      <c r="H46">
+        <v>0.231771738</v>
+      </c>
+      <c r="I46">
+        <v>0.55008800999999996</v>
+      </c>
+      <c r="J46">
+        <v>0.25346329299999998</v>
+      </c>
+      <c r="K46">
+        <v>0.24783767300000001</v>
+      </c>
+      <c r="L46">
+        <v>0.49869902900000002</v>
+      </c>
+      <c r="M46">
+        <v>0.22189782999999999</v>
+      </c>
+      <c r="N46">
+        <v>0.26468517800000002</v>
+      </c>
+      <c r="O46">
+        <v>0.51341699100000004</v>
+      </c>
+      <c r="P46">
+        <v>0.22064530299999999</v>
+      </c>
+      <c r="Q46">
+        <v>0.25371403100000001</v>
+      </c>
+      <c r="R46">
+        <v>0.52564066399999998</v>
+      </c>
+      <c r="S46">
+        <v>0.21939277500000001</v>
+      </c>
+      <c r="T46">
+        <v>0.24274288499999999</v>
+      </c>
+      <c r="U46">
+        <v>0.53786433700000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0.21223761999999999</v>
+      </c>
+      <c r="H47">
+        <v>0.26361095800000001</v>
+      </c>
+      <c r="I47">
+        <v>0.52415143200000003</v>
+      </c>
+      <c r="J47">
+        <v>0.241622749</v>
+      </c>
+      <c r="K47">
+        <v>0.28781310700000001</v>
+      </c>
+      <c r="L47">
+        <v>0.47056415400000001</v>
+      </c>
+      <c r="M47">
+        <v>0.232830605</v>
+      </c>
+      <c r="N47">
+        <v>0.281083419</v>
+      </c>
+      <c r="O47">
+        <v>0.486085979</v>
+      </c>
+      <c r="P47">
+        <v>0.22596627699999999</v>
+      </c>
+      <c r="Q47">
+        <v>0.27525926499999998</v>
+      </c>
+      <c r="R47">
+        <v>0.498774463</v>
+      </c>
+      <c r="S47">
+        <v>0.21910194799999999</v>
+      </c>
+      <c r="T47">
+        <v>0.269435111</v>
+      </c>
+      <c r="U47">
+        <v>0.51146294800000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0.29887114100000001</v>
+      </c>
+      <c r="H48">
+        <v>0.30789963999999997</v>
+      </c>
+      <c r="I48">
+        <v>0.39322922900000001</v>
+      </c>
+      <c r="J48">
+        <v>0.35170520999999999</v>
+      </c>
+      <c r="K48">
+        <v>0.31257068399999999</v>
+      </c>
+      <c r="L48">
+        <v>0.33572411600000002</v>
+      </c>
+      <c r="M48">
+        <v>0.277681703</v>
+      </c>
+      <c r="N48">
+        <v>0.28573779599999999</v>
+      </c>
+      <c r="O48">
+        <v>0.43658050300000001</v>
+      </c>
+      <c r="P48">
+        <v>0.28474484900000002</v>
+      </c>
+      <c r="Q48">
+        <v>0.29312507799999998</v>
+      </c>
+      <c r="R48">
+        <v>0.42213007800000002</v>
+      </c>
+      <c r="S48">
+        <v>0.29180799499999999</v>
+      </c>
+      <c r="T48">
+        <v>0.30051235900000001</v>
+      </c>
+      <c r="U48">
+        <v>0.407679654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0.29637601000000002</v>
+      </c>
+      <c r="H49">
+        <v>0.27582373199999999</v>
+      </c>
+      <c r="I49">
+        <v>0.42780026799999998</v>
+      </c>
+      <c r="J49">
+        <v>0.346478014</v>
+      </c>
+      <c r="K49">
+        <v>0.31061343699999999</v>
+      </c>
+      <c r="L49">
+        <v>0.34290855999999997</v>
+      </c>
+      <c r="M49">
+        <v>0.31851544300000001</v>
+      </c>
+      <c r="N49">
+        <v>0.28318413599999998</v>
+      </c>
+      <c r="O49">
+        <v>0.39830042399999999</v>
+      </c>
+      <c r="P49">
+        <v>0.311135632</v>
+      </c>
+      <c r="Q49">
+        <v>0.28073066800000002</v>
+      </c>
+      <c r="R49">
+        <v>0.40813370500000001</v>
+      </c>
+      <c r="S49">
+        <v>0.30375582099999998</v>
+      </c>
+      <c r="T49">
+        <v>0.2782772</v>
+      </c>
+      <c r="U49">
+        <v>0.41796698599999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>